--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H2">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I2">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J2">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N2">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O2">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P2">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q2">
-        <v>2.936128790330666</v>
+        <v>0.354663149304</v>
       </c>
       <c r="R2">
-        <v>26.425159112976</v>
+        <v>3.191968343736</v>
       </c>
       <c r="S2">
-        <v>0.04667805406807678</v>
+        <v>0.005145165260706239</v>
       </c>
       <c r="T2">
-        <v>0.04667805406807678</v>
+        <v>0.005145165260706237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H3">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I3">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J3">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N3">
         <v>16.859836</v>
       </c>
       <c r="O3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P3">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q3">
-        <v>11.40862203203955</v>
+        <v>0.6458328778160001</v>
       </c>
       <c r="R3">
-        <v>102.677598288356</v>
+        <v>5.812495900344</v>
       </c>
       <c r="S3">
-        <v>0.1813722469557681</v>
+        <v>0.009369219479615509</v>
       </c>
       <c r="T3">
-        <v>0.1813722469557681</v>
+        <v>0.009369219479615507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H4">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I4">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J4">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N4">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O4">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P4">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q4">
-        <v>4.815125462942889</v>
+        <v>0.385576857424</v>
       </c>
       <c r="R4">
-        <v>43.336129166486</v>
+        <v>3.470191716816</v>
       </c>
       <c r="S4">
-        <v>0.0765500094696149</v>
+        <v>0.005593636260331579</v>
       </c>
       <c r="T4">
-        <v>0.0765500094696149</v>
+        <v>0.005593636260331578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H5">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I5">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J5">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N5">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O5">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P5">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q5">
-        <v>5.244021419816112</v>
+        <v>0.116384200456</v>
       </c>
       <c r="R5">
-        <v>47.196192778345</v>
+        <v>1.047457804104</v>
       </c>
       <c r="S5">
-        <v>0.0833685212223821</v>
+        <v>0.001688407567170184</v>
       </c>
       <c r="T5">
-        <v>0.0833685212223821</v>
+        <v>0.001688407567170184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H6">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I6">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J6">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N6">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P6">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q6">
-        <v>20.02861002662289</v>
+        <v>1.478559771982</v>
       </c>
       <c r="R6">
-        <v>180.257490239606</v>
+        <v>13.307037947838</v>
       </c>
       <c r="S6">
-        <v>0.3184112852303866</v>
+        <v>0.02144974573650673</v>
       </c>
       <c r="T6">
-        <v>0.3184112852303867</v>
+        <v>0.02144974573650673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>2.030023666666667</v>
+        <v>0.114918</v>
       </c>
       <c r="H7">
-        <v>6.090071</v>
+        <v>0.344754</v>
       </c>
       <c r="I7">
-        <v>0.8776223887075381</v>
+        <v>0.04640425382421802</v>
       </c>
       <c r="J7">
-        <v>0.8776223887075382</v>
+        <v>0.04640425382421801</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N7">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P7">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q7">
-        <v>10.771429406777</v>
+        <v>0.217690661334</v>
       </c>
       <c r="R7">
-        <v>96.942864660993</v>
+        <v>1.959215952006</v>
       </c>
       <c r="S7">
-        <v>0.1712422717613095</v>
+        <v>0.003158079519887778</v>
       </c>
       <c r="T7">
-        <v>0.1712422717613095</v>
+        <v>0.003158079519887777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H8">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J8">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.446352</v>
+        <v>3.086228</v>
       </c>
       <c r="N8">
-        <v>4.339055999999999</v>
+        <v>9.258683999999999</v>
       </c>
       <c r="O8">
-        <v>0.05318694539780245</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="P8">
-        <v>0.05318694539780244</v>
+        <v>0.1108770174431943</v>
       </c>
       <c r="Q8">
-        <v>0.409420306992</v>
+        <v>6.265115880729333</v>
       </c>
       <c r="R8">
-        <v>3.684782762927999</v>
+        <v>56.386042926564</v>
       </c>
       <c r="S8">
-        <v>0.006508891329725662</v>
+        <v>0.09088921881815586</v>
       </c>
       <c r="T8">
-        <v>0.006508891329725661</v>
+        <v>0.09088921881815584</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H9">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J9">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.619945333333333</v>
+        <v>5.619945333333334</v>
       </c>
       <c r="N9">
         <v>16.859836</v>
       </c>
       <c r="O9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="P9">
-        <v>0.2066631951161506</v>
+        <v>0.2019043235800461</v>
       </c>
       <c r="Q9">
-        <v>1.590843545452</v>
+        <v>11.40862203203956</v>
       </c>
       <c r="R9">
-        <v>14.317591909068</v>
+        <v>102.677598288356</v>
       </c>
       <c r="S9">
-        <v>0.02529094816038249</v>
+        <v>0.1655070335527405</v>
       </c>
       <c r="T9">
-        <v>0.02529094816038249</v>
+        <v>0.1655070335527405</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H10">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I10">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J10">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.371955333333334</v>
+        <v>3.355234666666667</v>
       </c>
       <c r="N10">
-        <v>7.115866</v>
+        <v>10.065704</v>
       </c>
       <c r="O10">
-        <v>0.08722431247720219</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="P10">
-        <v>0.08722431247720218</v>
+        <v>0.1205414547019891</v>
       </c>
       <c r="Q10">
-        <v>0.6714317681620001</v>
+        <v>6.811205780553777</v>
       </c>
       <c r="R10">
-        <v>6.042885913458</v>
+        <v>61.300852024984</v>
       </c>
       <c r="S10">
-        <v>0.01067430300758728</v>
+        <v>0.09881144808644367</v>
       </c>
       <c r="T10">
-        <v>0.01067430300758728</v>
+        <v>0.09881144808644367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H11">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I11">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J11">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.583231666666667</v>
+        <v>1.012758666666667</v>
       </c>
       <c r="N11">
-        <v>7.749695</v>
+        <v>3.038276</v>
       </c>
       <c r="O11">
-        <v>0.09499361262325785</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="P11">
-        <v>0.09499361262325784</v>
+        <v>0.03638475846559173</v>
       </c>
       <c r="Q11">
-        <v>0.7312379711150001</v>
+        <v>2.055924061955111</v>
       </c>
       <c r="R11">
-        <v>6.581141740035</v>
+        <v>18.503316557596</v>
       </c>
       <c r="S11">
-        <v>0.01162509140087575</v>
+        <v>0.02982567848669976</v>
       </c>
       <c r="T11">
-        <v>0.01162509140087575</v>
+        <v>0.02982567848669976</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H12">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I12">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J12">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.866195333333332</v>
+        <v>12.86621566666667</v>
       </c>
       <c r="N12">
-        <v>29.598586</v>
+        <v>38.598647</v>
       </c>
       <c r="O12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610143</v>
       </c>
       <c r="P12">
-        <v>0.3628112606599592</v>
+        <v>0.4622366263610142</v>
       </c>
       <c r="Q12">
-        <v>2.792833779202</v>
+        <v>26.11872230377078</v>
       </c>
       <c r="R12">
-        <v>25.135504012818</v>
+        <v>235.068500733937</v>
       </c>
       <c r="S12">
-        <v>0.04439997542957255</v>
+        <v>0.3789092351858812</v>
       </c>
       <c r="T12">
-        <v>0.04439997542957255</v>
+        <v>0.3789092351858812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.283071</v>
+        <v>2.030023666666667</v>
       </c>
       <c r="H13">
-        <v>0.849213</v>
+        <v>6.090071</v>
       </c>
       <c r="I13">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="J13">
-        <v>0.1223776112924619</v>
+        <v>0.819730011809897</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,400 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.306061</v>
+        <v>1.894313</v>
       </c>
       <c r="N13">
-        <v>15.918183</v>
+        <v>5.682938999999999</v>
       </c>
       <c r="O13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="P13">
-        <v>0.1951206737256277</v>
+        <v>0.06805581944816448</v>
       </c>
       <c r="Q13">
-        <v>1.501991993331</v>
+        <v>3.845500222074333</v>
       </c>
       <c r="R13">
-        <v>13.517927939979</v>
+        <v>34.609501998669</v>
       </c>
       <c r="S13">
-        <v>0.02387840196431815</v>
+        <v>0.05578739767997609</v>
       </c>
       <c r="T13">
-        <v>0.02387840196431814</v>
+        <v>0.05578739767997609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.994537</v>
+      </c>
+      <c r="I14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J14">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.086228</v>
+      </c>
+      <c r="N14">
+        <v>9.258683999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1108770174431943</v>
+      </c>
+      <c r="P14">
+        <v>0.1108770174431943</v>
+      </c>
+      <c r="Q14">
+        <v>1.023122645478667</v>
+      </c>
+      <c r="R14">
+        <v>9.208103809308</v>
+      </c>
+      <c r="S14">
+        <v>0.01484263336433225</v>
+      </c>
+      <c r="T14">
+        <v>0.01484263336433225</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.994537</v>
+      </c>
+      <c r="I15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J15">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.619945333333334</v>
+      </c>
+      <c r="N15">
+        <v>16.859836</v>
+      </c>
+      <c r="O15">
+        <v>0.2019043235800461</v>
+      </c>
+      <c r="P15">
+        <v>0.2019043235800461</v>
+      </c>
+      <c r="Q15">
+        <v>1.863081190659111</v>
+      </c>
+      <c r="R15">
+        <v>16.767730715932</v>
+      </c>
+      <c r="S15">
+        <v>0.02702807054769015</v>
+      </c>
+      <c r="T15">
+        <v>0.02702807054769014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.994537</v>
+      </c>
+      <c r="I16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J16">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.355234666666667</v>
+      </c>
+      <c r="N16">
+        <v>10.065704</v>
+      </c>
+      <c r="O16">
+        <v>0.1205414547019891</v>
+      </c>
+      <c r="P16">
+        <v>0.1205414547019891</v>
+      </c>
+      <c r="Q16">
+        <v>1.112301673227556</v>
+      </c>
+      <c r="R16">
+        <v>10.010715059048</v>
+      </c>
+      <c r="S16">
+        <v>0.01613637035521383</v>
+      </c>
+      <c r="T16">
+        <v>0.01613637035521382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.994537</v>
+      </c>
+      <c r="I17">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J17">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.012758666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.038276</v>
+      </c>
+      <c r="O17">
+        <v>0.03638475846559173</v>
+      </c>
+      <c r="P17">
+        <v>0.03638475846559173</v>
+      </c>
+      <c r="Q17">
+        <v>0.3357419886902222</v>
+      </c>
+      <c r="R17">
+        <v>3.021677898212</v>
+      </c>
+      <c r="S17">
+        <v>0.004870672411721788</v>
+      </c>
+      <c r="T17">
+        <v>0.004870672411721787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.994537</v>
+      </c>
+      <c r="I18">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J18">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.86621566666667</v>
+      </c>
+      <c r="N18">
+        <v>38.598647</v>
+      </c>
+      <c r="O18">
+        <v>0.4622366263610143</v>
+      </c>
+      <c r="P18">
+        <v>0.4622366263610142</v>
+      </c>
+      <c r="Q18">
+        <v>4.265309176826556</v>
+      </c>
+      <c r="R18">
+        <v>38.387782591439</v>
+      </c>
+      <c r="S18">
+        <v>0.06187764543862637</v>
+      </c>
+      <c r="T18">
+        <v>0.06187764543862635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3315123333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.994537</v>
+      </c>
+      <c r="I19">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="J19">
+        <v>0.133865734365885</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.894313</v>
+      </c>
+      <c r="N19">
+        <v>5.682938999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.06805581944816448</v>
+      </c>
+      <c r="P19">
+        <v>0.06805581944816448</v>
+      </c>
+      <c r="Q19">
+        <v>0.6279881226936666</v>
+      </c>
+      <c r="R19">
+        <v>5.651893104242999</v>
+      </c>
+      <c r="S19">
+        <v>0.009110342248300617</v>
+      </c>
+      <c r="T19">
+        <v>0.009110342248300615</v>
       </c>
     </row>
   </sheetData>
